--- a/_business/ビジネスモデルキャンバス.xlsx
+++ b/_business/ビジネスモデルキャンバス.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\哲央\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\proj\batonjs\_business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35C06B-F0EC-4FE5-8E8B-EFAE9BE79B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9A3052-C91E-4328-AFBE-6E29EFDB36D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="20904" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="444" windowWidth="18000" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート" sheetId="1" r:id="rId1"/>
@@ -215,47 +215,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・協賛
-・ブランド効果による受託開発</t>
-    <rPh sb="1" eb="3">
-      <t>キョウサン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・ユーザー
 ・これの開発者</t>
     <rPh sb="10" eb="13">
       <t>カイハツシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・布教（サンプルやガイドの更新、記事の投稿）
-・これの開発</t>
-    <rPh sb="1" eb="3">
-      <t>フキョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -273,6 +236,51 @@
     <t>・GitHub
 ・Qiita、zenn.dev
 ・npmjs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・協賛
+・サポート・コンサル
+・ブランド効果による受託開発</t>
+    <rPh sb="1" eb="3">
+      <t>キョウサン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・布教（サンプルやガイドの更新、記事の投稿）
+・これの開発
+・関連ライブラリとの統合（bootstrapなど）</t>
+    <rPh sb="1" eb="3">
+      <t>フキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウゴウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -750,17 +758,62 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,12 +833,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -827,45 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3593,7 +3601,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3611,10 +3619,10 @@
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
@@ -3623,113 +3631,116 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" thickTop="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>16</v>
+      <c r="B2" s="17" t="s">
+        <v>18</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" thickTop="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" thickTop="1">
+      <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-    </row>
-    <row r="9" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" customHeight="1" thickTop="1">
-      <c r="A10" s="48" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="53"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A2:A8"/>
@@ -3739,9 +3750,6 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="C2:D8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3782,10 +3790,10 @@
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
@@ -3796,24 +3804,24 @@
     <row r="4" spans="1:6" ht="37.5" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="15"/>
       <c r="F6" s="13"/>
     </row>
@@ -3822,8 +3830,8 @@
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="9" t="s">
         <v>7</v>
       </c>
@@ -3832,63 +3840,57 @@
     <row r="8" spans="1:6" ht="37.5" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="C9:D9"/>
@@ -3897,6 +3899,12 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:F12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
